--- a/Prisoner's Dilemma/other_player_initial_choiceD.xlsx
+++ b/Prisoner's Dilemma/other_player_initial_choiceD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ch547\Dropbox\Katie\PhD\Studies\Citalopram Study\7. Materials\Cognitive Tasks\Prisoner's Dilemna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilsk\RP\Prisoner's Dilemma\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA259A2-72AC-4744-A428-D8ECF75A99E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,19 +36,19 @@
     <t>Cooperate</t>
   </si>
   <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Jo</t>
-  </si>
-  <si>
     <t>other_name</t>
+  </si>
+  <si>
+    <t>Kendall</t>
+  </si>
+  <si>
+    <t>Kris</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,7 +82,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -358,37 +359,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
